--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>93.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.64</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -604,15 +644,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>6.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3843</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -632,15 +682,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.90</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>6.29</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,136 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -840,4 +841,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000729</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信中小盘先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3466</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010452</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1049,4 +1050,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -1074,12 +1074,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
+++ b/数据整理/stocks/A股/深证主板/002922-伊戈尔.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009686</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3440</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.73</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009687</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0305</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009686</t>
+          <t>000729</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合A</t>
+          <t>建信中小盘先锋股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>9.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>92.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3843</t>
+          <t>0.3466</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,112 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009687</t>
+          <t>010452</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华夏磐利一年定期开放混合C</t>
+          <t>广发瑞福精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>12.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>75.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.29</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0340</t>
+          <t>0.3256</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000756</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信潜力新蓝筹股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0437</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010453</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发瑞福精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>75.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -850,7 +894,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -901,36 +945,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000729</t>
+          <t>009686</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信中小盘先锋股票</t>
+          <t>华夏磐利一年定期开放混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.47</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.65</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3466</t>
+          <t>0.3843</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -939,112 +983,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010452</t>
+          <t>009687</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发瑞福精选混合A</t>
+          <t>华夏磐利一年定期开放混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.67</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>75.88</t>
+          <t>92.90</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3256</t>
+          <t>0.0340</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000756</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>建信潜力新蓝筹股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.66</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0437</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
         <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010453</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发瑞福精选混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>75.88</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1058,96 +1026,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.73</v>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.37</v>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>